--- a/etc/correctness/top-k_AAE_ARE_Raw/top-k_AAE_ARE.xlsx
+++ b/etc/correctness/top-k_AAE_ARE_Raw/top-k_AAE_ARE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\2020SketchFragments\SketchFragments\etc\correctness\top-k_AAE_ARE_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E6F740-AC54-47D1-B365-2314D0EA2BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DE4037-C296-43BC-8BF3-6D418CE6592C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27686,11 +27686,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
